--- a/HTML/0 Excel SRC Files/Jobs Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Jobs Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485D24EB-3CAC-4E04-8C12-EFFD26D8EF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6DB61-996F-4543-A956-ACF1F14367A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Markets" sheetId="8" r:id="rId7"/>
     <sheet name="Face Groups" sheetId="11" r:id="rId8"/>
     <sheet name="O-Lvl" sheetId="9" r:id="rId9"/>
+    <sheet name="FL" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -719,20 +720,118 @@
 [Dont.Work.Here]</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>evapharma</t>
   </si>
   <si>
     <t>Hilton</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Up Work</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Toptal</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>Worxmart</t>
+  </si>
+  <si>
+    <t>Jooble</t>
+  </si>
+  <si>
+    <t>Flex Jobs</t>
+  </si>
+  <si>
+    <t>People/Hour</t>
+  </si>
+  <si>
+    <t>Best Company</t>
+  </si>
+  <si>
+    <t>Upwork Egypt</t>
+  </si>
+  <si>
+    <t>عربي</t>
+  </si>
+  <si>
+    <t>خمسات</t>
+  </si>
+  <si>
+    <t>مستقل</t>
+  </si>
+  <si>
+    <t>transcription</t>
+  </si>
+  <si>
+    <t>Happy Scribe</t>
+  </si>
+  <si>
+    <t>Scribie</t>
+  </si>
+  <si>
+    <t>Go Transcript</t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>1/5</t>
+  </si>
+  <si>
+    <t>Freelance Me</t>
+  </si>
+  <si>
+    <t>Freelancer People</t>
+  </si>
+  <si>
+    <t>Learn With 
+Marie</t>
+  </si>
+  <si>
+    <t>وليد طه</t>
+  </si>
+  <si>
+    <t>فكرة 
+ صهيب الدسوقي</t>
+  </si>
+  <si>
+    <t>محمود خالد</t>
+  </si>
+  <si>
+    <t>Learn With Marie TIKTOK</t>
+  </si>
+  <si>
+    <t>Mounis Firwana</t>
+  </si>
+  <si>
+    <t>أبو العباقره</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designers </t>
+  </si>
+  <si>
+    <t>Behance</t>
+  </si>
+  <si>
+    <t>99 Designs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,6 +995,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -942,13 +1056,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1242,9 +1356,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,7 +1365,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1266,7 +1377,37 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1283,6 +1424,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1567,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C18477-0470-4498-9086-8645187CF6A7}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,7 +1749,7 @@
         <v>209</v>
       </c>
       <c r="H1" s="45"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="63" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1632,7 +1776,7 @@
         <v>192</v>
       </c>
       <c r="H2" s="45"/>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1659,7 +1803,7 @@
         <v>122</v>
       </c>
       <c r="H3" s="45"/>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1686,7 +1830,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="45"/>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1713,14 +1857,12 @@
         <v>143</v>
       </c>
       <c r="H5" s="45"/>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>215</v>
-      </c>
+      <c r="A6" s="45"/>
       <c r="B6" s="45"/>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
@@ -1728,7 +1870,7 @@
       <c r="F6" s="45"/>
       <c r="G6" s="45"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="48" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1740,8 +1882,10 @@
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
       <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="48" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
@@ -1753,18 +1897,18 @@
       <c r="C8" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="51" t="s">
         <v>75</v>
       </c>
       <c r="G8" s="45"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="48" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1809,7 +1953,7 @@
     <hyperlink ref="B4" r:id="rId31" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
     <hyperlink ref="G3" r:id="rId32" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
     <hyperlink ref="A8" r:id="rId33" display="Salsabeel Elsanhory" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
-    <hyperlink ref="I1" r:id="rId34" display="Home" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
+    <hyperlink ref="I1" r:id="rId34" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
     <hyperlink ref="G5" r:id="rId35" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
     <hyperlink ref="C5" r:id="rId36" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
     <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{0CFDE5A7-EEE6-4E10-8918-4F50CF689408}"/>
@@ -1818,9 +1962,310 @@
     <hyperlink ref="C8" r:id="rId38" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
     <hyperlink ref="E8" r:id="rId39" xr:uid="{F3DAB9F0-C87E-48B5-9E76-EE89BFE2913A}"/>
     <hyperlink ref="A5" r:id="rId40" display="iCareerEgy" xr:uid="{4B6DE209-12A5-423C-9A76-D60DA92AC988}"/>
+    <hyperlink ref="I7" location="FL!A1" display="Freelancer" xr:uid="{957926CA-8F10-47FC-94CE-8EC3821A4DEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId41"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DABE1E-B954-4FEA-BF88-745110978CA6}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="28" style="58"/>
+    <col min="6" max="6" width="17.140625" style="58" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="54" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+    </row>
+    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{0BB31627-5860-4B2B-8257-05F101B73D9E}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{07005F9B-4511-4204-A78F-42EFC1A373CE}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{D1EF40B2-E9ED-42BF-8FA5-65B544DEF5FF}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{33344414-7673-4A8C-8CD5-4C8E5917E773}"/>
+    <hyperlink ref="E3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{E2BF475D-FA0A-40EC-AE14-FEC51CC45A95}"/>
+    <hyperlink ref="A11" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{5775727E-B1C3-420D-8CA9-EE4DA55F37EB}"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://khamsat.com/" xr:uid="{BB57D405-C8B4-455A-8AF6-31C3A3E53CD8}"/>
+    <hyperlink ref="E17" r:id="rId8" display="https://99designs.com/" xr:uid="{2013DFE5-A547-4CA3-8874-1D64BEFB1F12}"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{2D70E38D-439E-41EA-8C2C-CCB4C55B97C6}"/>
+    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{48D36FB4-18F1-4A61-911F-DB8BC2D9233E}"/>
+    <hyperlink ref="G1" location="Jobs!A1" display="Back" xr:uid="{F4002D3D-1AD4-4552-A698-05EC1C10F18E}"/>
+    <hyperlink ref="B5" r:id="rId11" xr:uid="{F2765291-F7E9-4463-A41C-90DD4E23AE6F}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{2F770536-D56F-47C6-A1E8-4C0468FFBD1A}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{6CD51991-9296-44EB-8B54-594FE709C6BB}"/>
+    <hyperlink ref="A3" r:id="rId14" xr:uid="{DCD2735A-6F1C-47A5-AFB3-5345C9DA702B}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{30FC6001-BB00-419D-9540-D40995547183}"/>
+    <hyperlink ref="B3" r:id="rId16" xr:uid="{27B3E6AE-EFBA-4212-9907-E0C59B27C62D}"/>
+    <hyperlink ref="A14" r:id="rId17" display="Learn With Marie" xr:uid="{1575B8C0-DF1D-4694-ACBD-09C09B287A65}"/>
+    <hyperlink ref="D14" r:id="rId18" xr:uid="{3E404F8D-EE20-424A-BBB7-44D02201B643}"/>
+    <hyperlink ref="C14" r:id="rId19" display="فكرة - صهيب الدسوقي" xr:uid="{7958B80E-0A96-4A8C-89DD-AC706C72DB8C}"/>
+    <hyperlink ref="B15" r:id="rId20" xr:uid="{18A8EE44-AF99-40F7-96E1-46A43F4C7339}"/>
+    <hyperlink ref="A15" r:id="rId21" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{8B5E840F-604F-426E-B380-A77D8B629332}"/>
+    <hyperlink ref="B8" r:id="rId22" xr:uid="{A1BF7AEE-9B07-4066-938F-A238F80D34A2}"/>
+    <hyperlink ref="A8" r:id="rId23" xr:uid="{8EEF4EFF-C677-44C2-9656-C7A20F86BAF9}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{6CB1C057-6C39-44AD-9A6C-582CA89117A9}"/>
+    <hyperlink ref="C8" r:id="rId25" xr:uid="{EA9455F7-1EC1-4C6A-9185-71872839E025}"/>
+    <hyperlink ref="E15" r:id="rId26" xr:uid="{2855A974-08E5-4E17-A6C2-28C432E3E725}"/>
+    <hyperlink ref="B14" r:id="rId27" xr:uid="{D661D813-2C3D-4084-9329-B50A8280489F}"/>
+    <hyperlink ref="G3" r:id="rId28" xr:uid="{4383EAA1-436C-455E-B22A-93DBD1285270}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -1957,7 +2402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB50E4A-66A8-4341-BC74-F018CC377242}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1995,7 +2440,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>78</v>
@@ -2004,7 +2449,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>201</v>
@@ -2549,14 +2994,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -2698,7 +3143,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="53" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2712,7 +3157,7 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2760,7 +3205,7 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3002,13 +3447,13 @@
       <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="25"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
@@ -3233,7 +3678,7 @@
       <c r="B3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>197</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -3304,11 +3749,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/HTML/0 Excel SRC Files/Jobs Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Jobs Excel.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6DB61-996F-4543-A956-ACF1F14367A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7674AA-93F7-43B8-81BD-12F95190BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
-    <sheet name="training" sheetId="10" r:id="rId2"/>
-    <sheet name="Companies" sheetId="5" r:id="rId3"/>
-    <sheet name="Tech Co" sheetId="1" r:id="rId4"/>
-    <sheet name="Banks" sheetId="4" r:id="rId5"/>
-    <sheet name="Help" sheetId="6" r:id="rId6"/>
-    <sheet name="Markets" sheetId="8" r:id="rId7"/>
-    <sheet name="Face Groups" sheetId="11" r:id="rId8"/>
-    <sheet name="O-Lvl" sheetId="9" r:id="rId9"/>
-    <sheet name="FL" sheetId="13" r:id="rId10"/>
+    <sheet name="Dev.Data" sheetId="15" r:id="rId2"/>
+    <sheet name="Oth.Comp" sheetId="14" r:id="rId3"/>
+    <sheet name="training" sheetId="10" r:id="rId4"/>
+    <sheet name="Companies" sheetId="5" r:id="rId5"/>
+    <sheet name="Tech Co" sheetId="1" r:id="rId6"/>
+    <sheet name="Banks" sheetId="4" r:id="rId7"/>
+    <sheet name="Help" sheetId="6" r:id="rId8"/>
+    <sheet name="Markets" sheetId="8" r:id="rId9"/>
+    <sheet name="Face Groups" sheetId="11" r:id="rId10"/>
+    <sheet name="O-Lvl" sheetId="9" r:id="rId11"/>
+    <sheet name="FL" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="303">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -155,9 +157,6 @@
     <t>EG-FWD</t>
   </si>
   <si>
-    <t>Market Place</t>
-  </si>
-  <si>
     <t>دليل الشركات</t>
   </si>
   <si>
@@ -182,9 +181,6 @@
     <t>Vezeeta</t>
   </si>
   <si>
-    <t>OLX</t>
-  </si>
-  <si>
     <t>Noon</t>
   </si>
   <si>
@@ -374,9 +370,6 @@
     <t xml:space="preserve">Help ! </t>
   </si>
   <si>
-    <t>أسواق</t>
-  </si>
-  <si>
     <t>call centre helper</t>
   </si>
   <si>
@@ -405,9 +398,6 @@
   </si>
   <si>
     <t>Targetd HR</t>
-  </si>
-  <si>
-    <t>منح و تدريب</t>
   </si>
   <si>
     <t>OutSide Egypt</t>
@@ -541,9 +531,6 @@
     <t>مجمع شباب البنوك</t>
   </si>
   <si>
-    <t>بنوك</t>
-  </si>
-  <si>
     <t>مسابقة البنك الزراعي
  المصري 2021</t>
   </si>
@@ -696,9 +683,6 @@
     <t>شركات (عامة)</t>
   </si>
   <si>
-    <t xml:space="preserve">شركات (تقنية) </t>
-  </si>
-  <si>
     <t>Bayt</t>
   </si>
   <si>
@@ -825,13 +809,190 @@
   </si>
   <si>
     <t>99 Designs</t>
+  </si>
+  <si>
+    <t>[Banks]</t>
+  </si>
+  <si>
+    <t>[Training]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Markets] </t>
+  </si>
+  <si>
+    <t>Tech Comp.</t>
+  </si>
+  <si>
+    <t>دليل شركات</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Ph1</t>
+  </si>
+  <si>
+    <t>Ph2</t>
+  </si>
+  <si>
+    <t>Notes1</t>
+  </si>
+  <si>
+    <t>Notes2</t>
+  </si>
+  <si>
+    <t>معرض الحمد</t>
+  </si>
+  <si>
+    <t>ابو طه</t>
+  </si>
+  <si>
+    <t>ش صلاح الاسيوطي سوق المهاجرين</t>
+  </si>
+  <si>
+    <t>عين شمس الشرقية</t>
+  </si>
+  <si>
+    <t>01151751093</t>
+  </si>
+  <si>
+    <t>01126654268</t>
+  </si>
+  <si>
+    <t>صابر فهيم 1</t>
+  </si>
+  <si>
+    <t>صابر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 الظاهر </t>
+  </si>
+  <si>
+    <t>الفجالة</t>
+  </si>
+  <si>
+    <t>01282637854</t>
+  </si>
+  <si>
+    <t>الخلاطات و الدش و غيره</t>
+  </si>
+  <si>
+    <t>رخيص و كويس</t>
+  </si>
+  <si>
+    <t>صابر فهيم 2</t>
+  </si>
+  <si>
+    <t>سوق المهاجرين ش حليمة السعدية</t>
+  </si>
+  <si>
+    <t>الخواجة</t>
+  </si>
+  <si>
+    <t>لقيت عنده الوحدة</t>
+  </si>
+  <si>
+    <t>إخوان مقار</t>
+  </si>
+  <si>
+    <t>01282242361</t>
+  </si>
+  <si>
+    <t>01279009380</t>
+  </si>
+  <si>
+    <t>القاعدة اللاصقة في الحيطة</t>
+  </si>
+  <si>
+    <t>معرض البطل الروماني</t>
+  </si>
+  <si>
+    <t>ايمن</t>
+  </si>
+  <si>
+    <t>15 ش محمد حسانين - سوق المهاجرين</t>
+  </si>
+  <si>
+    <t>01208028714</t>
+  </si>
+  <si>
+    <t>01208125414</t>
+  </si>
+  <si>
+    <t>الشربيني</t>
+  </si>
+  <si>
+    <t>شربيني</t>
+  </si>
+  <si>
+    <t>ش نجيب اسكندر - سوق المهاجرين</t>
+  </si>
+  <si>
+    <t>01221825278</t>
+  </si>
+  <si>
+    <t>01120204424</t>
+  </si>
+  <si>
+    <t>المونتال</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>سباكة و ادوات صحية</t>
+  </si>
+  <si>
+    <t>[Dev.Data]</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Phone.Number</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>company name</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>khaled abd elnasser</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>PowerPlatform Dev</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>m.abdel@blockgemini.com</t>
+  </si>
+  <si>
+    <t>blockgemini.com</t>
+  </si>
+  <si>
+    <t>sts-eg.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -992,12 +1153,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1011,7 +1166,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1066,8 +1221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1218,12 +1379,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1268,9 +1549,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,9 +1637,6 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,13 +1655,13 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1407,7 +1682,76 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1426,6 +1770,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1709,10 +2059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C18477-0470-4498-9086-8645187CF6A7}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,254 +2072,674 @@
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="26.140625" customWidth="1"/>
     <col min="5" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
     <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>207</v>
+      <c r="A1" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>245</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="63" t="s">
+      <c r="F1" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="44"/>
+      <c r="I1" s="61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="44"/>
+      <c r="I2" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>191</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46" t="s">
-        <v>152</v>
+      <c r="G3" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="47" t="s">
-        <v>36</v>
+      <c r="H4" s="44"/>
+      <c r="I4" s="46" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="47" t="s">
-        <v>45</v>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="48" t="s">
-        <v>109</v>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="46" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="A7" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="49" t="s">
+        <v>248</v>
+      </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="48" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="48" t="s">
-        <v>183</v>
+      <c r="I7" s="46" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Banks!A1" display="[Banks]" xr:uid="{C4C66F48-7D2A-4D5E-ADA0-D9D15EDFE91F}"/>
-    <hyperlink ref="E1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{BD41F396-D55D-4233-A472-875BDEC5164D}"/>
-    <hyperlink ref="G1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{FA0F7D26-AB8F-41A4-8548-1E04E440AFF8}"/>
+    <hyperlink ref="I4" location="Banks!A1" display="[Banks]" xr:uid="{C4C66F48-7D2A-4D5E-ADA0-D9D15EDFE91F}"/>
+    <hyperlink ref="D1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{BD41F396-D55D-4233-A472-875BDEC5164D}"/>
+    <hyperlink ref="F1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{FA0F7D26-AB8F-41A4-8548-1E04E440AFF8}"/>
     <hyperlink ref="E5" r:id="rId3" display="https://www.men7h.com/" xr:uid="{A013764E-41A5-418C-9E96-DF11259C13D2}"/>
     <hyperlink ref="A4" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{2290708E-AC5C-4D0F-BB0B-8B2F2980D833}"/>
-    <hyperlink ref="F1" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{4BC3BD77-0760-4157-8564-0817FACB6558}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{4BC3BD77-0760-4157-8564-0817FACB6558}"/>
     <hyperlink ref="G4" r:id="rId6" display="https://jobs.caoa.gov.eg/" xr:uid="{297832C6-AD2D-4B77-82CF-3FA9869D6B6B}"/>
-    <hyperlink ref="A2" r:id="rId7" display="https://www.egycareers.com/" xr:uid="{42A48C70-B775-461A-BB1B-47698E610C1B}"/>
+    <hyperlink ref="G1" r:id="rId7" display="https://www.egycareers.com/" xr:uid="{42A48C70-B775-461A-BB1B-47698E610C1B}"/>
     <hyperlink ref="B2" r:id="rId8" display="https://eg.expertini.com/jobs" xr:uid="{3F1C1381-4D28-4499-B33A-F2883D6585E2}"/>
-    <hyperlink ref="D2" r:id="rId9" display="https://egypt.tanqeeb.com/ar" xr:uid="{D9B5009A-920B-4F5A-94A1-8C565E20AB06}"/>
-    <hyperlink ref="E2" r:id="rId10" display="https://www.seek.com.au/jobs/in-egypt" xr:uid="{696EF875-02A8-492F-BBAB-5F0C4F11A870}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://egypt.tanqeeb.com/ar" xr:uid="{D9B5009A-920B-4F5A-94A1-8C565E20AB06}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.seek.com.au/jobs/in-egypt" xr:uid="{696EF875-02A8-492F-BBAB-5F0C4F11A870}"/>
     <hyperlink ref="F4" r:id="rId11" display="https://ngos-hub.com/" xr:uid="{E97793E0-638A-4559-B5F8-CC37F4DF9FC2}"/>
-    <hyperlink ref="F2" r:id="rId12" display="https://jobsindeep.com/" xr:uid="{945A05D6-CC40-47B8-96FC-7E9C4E49F89E}"/>
-    <hyperlink ref="B3" r:id="rId13" display="https://www.jobzella.com/" xr:uid="{EDF521EF-52D8-4AA1-9557-F512C75972A1}"/>
-    <hyperlink ref="F3" r:id="rId14" display="https://forasna.com/" xr:uid="{CE918C81-91E7-4E72-B523-55A748C1827B}"/>
-    <hyperlink ref="A3" r:id="rId15" display="https://www.goodfirms.co/" xr:uid="{5A89B854-A9D6-4CC9-82C6-A182363FDE11}"/>
-    <hyperlink ref="E3" r:id="rId16" display="https://www.waziftakherenow.com/" xr:uid="{DEE36C15-C05B-436C-87AC-361CC91FF2DA}"/>
-    <hyperlink ref="C3" r:id="rId17" display="https://eg.indeed.com/?from=gnav-jobsearch--jasx" xr:uid="{24B79881-C9E8-41BB-AD0B-1AD97725DDB1}"/>
-    <hyperlink ref="G2" r:id="rId18" display="https://www.al7arefa.com/ar/" xr:uid="{946E33E8-BA5A-4135-9DE7-5E75040B607D}"/>
-    <hyperlink ref="D3" r:id="rId19" display="https://www.glassdoor.com/index.htm" xr:uid="{530FC179-55DD-4591-A292-227D96ACA353}"/>
-    <hyperlink ref="F5" r:id="rId20" display="https://muwuzzuf.com/en" xr:uid="{DD7C6896-559B-4F97-BB5F-7364F1A470B1}"/>
-    <hyperlink ref="C2" r:id="rId21" display="https://i-need.dev/" xr:uid="{E380F47D-6E26-467D-9EDC-EF7F60F5F023}"/>
-    <hyperlink ref="D5" r:id="rId22" display="https://drjobs.ae/en/egypt/jobs" xr:uid="{58C0930C-A27D-474D-BA61-6E538CA3D7E1}"/>
-    <hyperlink ref="C4" r:id="rId23" display="https://jobmaster.jobmastergroup.com/" xr:uid="{6B0BF058-B648-423C-A0DB-FB7A8F4C657A}"/>
-    <hyperlink ref="B8" r:id="rId24" display="https://www.facebook.com/andrewashraf.me" xr:uid="{D34F2574-A7DC-4951-A1EC-CF0FB7350022}"/>
-    <hyperlink ref="D4" r:id="rId25" display="https://www.pgcareers.com/search-jobs?ascf=%5b%7b%27key%27:%27custom_fields.Language%27,%27value%27:%27English%27%7d,%5d&amp;alp=357994&amp;alt=2" xr:uid="{1C1D1263-78B9-4E48-982D-7C194A702FF7}"/>
-    <hyperlink ref="I4" r:id="rId26" display="https://www.facebook.com/marketplace/?_rdc=2" xr:uid="{03485D27-08A8-44F0-83D2-CB3792AF7B51}"/>
-    <hyperlink ref="I5" r:id="rId27" display="https://www.olx.com.eg/en/myaccount" xr:uid="{77F576E0-36B2-4794-AA7B-BC927C0B889B}"/>
-    <hyperlink ref="E4" r:id="rId28" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{919B735E-630A-4CA8-8985-B8FDA6560229}"/>
-    <hyperlink ref="B5" r:id="rId29" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
-    <hyperlink ref="F8" r:id="rId30" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
-    <hyperlink ref="I8" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
-    <hyperlink ref="C1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
+    <hyperlink ref="E2" r:id="rId12" display="https://jobsindeep.com/" xr:uid="{945A05D6-CC40-47B8-96FC-7E9C4E49F89E}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://www.jobzella.com/" xr:uid="{EDF521EF-52D8-4AA1-9557-F512C75972A1}"/>
+    <hyperlink ref="E3" r:id="rId14" display="https://forasna.com/" xr:uid="{CE918C81-91E7-4E72-B523-55A748C1827B}"/>
+    <hyperlink ref="D3" r:id="rId15" display="https://www.waziftakherenow.com/" xr:uid="{DEE36C15-C05B-436C-87AC-361CC91FF2DA}"/>
+    <hyperlink ref="B3" r:id="rId16" display="https://eg.indeed.com/?from=gnav-jobsearch--jasx" xr:uid="{24B79881-C9E8-41BB-AD0B-1AD97725DDB1}"/>
+    <hyperlink ref="F2" r:id="rId17" display="https://www.al7arefa.com/ar/" xr:uid="{946E33E8-BA5A-4135-9DE7-5E75040B607D}"/>
+    <hyperlink ref="C3" r:id="rId18" display="https://www.glassdoor.com/index.htm" xr:uid="{530FC179-55DD-4591-A292-227D96ACA353}"/>
+    <hyperlink ref="F5" r:id="rId19" display="https://muwuzzuf.com/en" xr:uid="{DD7C6896-559B-4F97-BB5F-7364F1A470B1}"/>
+    <hyperlink ref="A2" r:id="rId20" display="https://i-need.dev/" xr:uid="{E380F47D-6E26-467D-9EDC-EF7F60F5F023}"/>
+    <hyperlink ref="D5" r:id="rId21" display="https://drjobs.ae/en/egypt/jobs" xr:uid="{58C0930C-A27D-474D-BA61-6E538CA3D7E1}"/>
+    <hyperlink ref="C4" r:id="rId22" display="https://jobmaster.jobmastergroup.com/" xr:uid="{6B0BF058-B648-423C-A0DB-FB7A8F4C657A}"/>
+    <hyperlink ref="B7" r:id="rId23" display="https://www.facebook.com/andrewashraf.me" xr:uid="{D34F2574-A7DC-4951-A1EC-CF0FB7350022}"/>
+    <hyperlink ref="D4" r:id="rId24" display="https://www.pgcareers.com/search-jobs?ascf=%5b%7b%27key%27:%27custom_fields.Language%27,%27value%27:%27English%27%7d,%5d&amp;alp=357994&amp;alt=2" xr:uid="{1C1D1263-78B9-4E48-982D-7C194A702FF7}"/>
+    <hyperlink ref="E4" r:id="rId25" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{919B735E-630A-4CA8-8985-B8FDA6560229}"/>
+    <hyperlink ref="B5" r:id="rId26" display="https://www.facebook.com/yallawork.ngo" xr:uid="{22522BFD-12AA-4D36-A408-0A0B4C2A12EA}"/>
+    <hyperlink ref="F7" r:id="rId27" display="http://www.ibsns.com/" xr:uid="{6601945B-4F9E-4A9B-84CD-F1DFA666D41B}"/>
+    <hyperlink ref="B1" location="Companies!A1" display="شركات" xr:uid="{6AE130AC-0712-44AD-AE68-AC925D1AE61B}"/>
     <hyperlink ref="I2" location="Help!A1" display="Help ! " xr:uid="{B87F116D-5C61-4F41-A72E-D64B9F2CD490}"/>
-    <hyperlink ref="B1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
-    <hyperlink ref="D1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
-    <hyperlink ref="B4" r:id="rId31" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
-    <hyperlink ref="G3" r:id="rId32" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
-    <hyperlink ref="A8" r:id="rId33" display="Salsabeel Elsanhory" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
-    <hyperlink ref="I1" r:id="rId34" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
-    <hyperlink ref="G5" r:id="rId35" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
-    <hyperlink ref="C5" r:id="rId36" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
+    <hyperlink ref="A1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{422F7D52-C336-4F74-9D44-45F813D2B2FD}"/>
+    <hyperlink ref="C1" location="training!A1" display="منح و تدريب" xr:uid="{5D8D9E34-958E-4DC7-8B6B-59949072D7B9}"/>
+    <hyperlink ref="B4" r:id="rId28" display="https://www.facebook.com/Jobeexjobs" xr:uid="{F7D477F5-F195-46B3-98B9-01890F939CD2}"/>
+    <hyperlink ref="F3" r:id="rId29" display="freeejobs" xr:uid="{12CC0937-FEFD-4512-A4F1-9FA9848A179C}"/>
+    <hyperlink ref="A7" r:id="rId30" display="Salsabeel Elsanhory" xr:uid="{AFC9254A-BC87-4309-95F4-C9360250DF35}"/>
+    <hyperlink ref="I1" r:id="rId31" xr:uid="{AAA978F1-D8C0-4965-9E42-79034F772518}"/>
+    <hyperlink ref="G3" r:id="rId32" display="careerjet" xr:uid="{C79BFF6A-4755-4095-9353-DDCF903155E0}"/>
+    <hyperlink ref="C5" r:id="rId33" xr:uid="{533657A4-ABE7-4CD6-BB3B-A4919B769C60}"/>
+    <hyperlink ref="I5" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
+    <hyperlink ref="D7" r:id="rId34" xr:uid="{EF9F278F-824F-4A3A-A4BE-40D903245473}"/>
+    <hyperlink ref="C7" r:id="rId35" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
+    <hyperlink ref="E7" r:id="rId36" xr:uid="{F3DAB9F0-C87E-48B5-9E76-EE89BFE2913A}"/>
+    <hyperlink ref="A5" r:id="rId37" display="iCareerEgy" xr:uid="{4B6DE209-12A5-423C-9A76-D60DA92AC988}"/>
+    <hyperlink ref="I6" location="FL!A1" display="Freelancer" xr:uid="{957926CA-8F10-47FC-94CE-8EC3821A4DEC}"/>
+    <hyperlink ref="G2" r:id="rId38" display="https://www.goodfirms.co/" xr:uid="{E883C039-8BA0-4270-A6D4-C018442BDA95}"/>
     <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{0CFDE5A7-EEE6-4E10-8918-4F50CF689408}"/>
-    <hyperlink ref="I6" location="Markets!A1" display="أسواق" xr:uid="{2F7750BA-E0E5-4647-ABBC-A4861BF862D9}"/>
-    <hyperlink ref="D8" r:id="rId37" xr:uid="{EF9F278F-824F-4A3A-A4BE-40D903245473}"/>
-    <hyperlink ref="C8" r:id="rId38" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
-    <hyperlink ref="E8" r:id="rId39" xr:uid="{F3DAB9F0-C87E-48B5-9E76-EE89BFE2913A}"/>
-    <hyperlink ref="A5" r:id="rId40" display="iCareerEgy" xr:uid="{4B6DE209-12A5-423C-9A76-D60DA92AC988}"/>
-    <hyperlink ref="I7" location="FL!A1" display="Freelancer" xr:uid="{957926CA-8F10-47FC-94CE-8EC3821A4DEC}"/>
+    <hyperlink ref="I7" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
+    <hyperlink ref="G7" location="Oth.Comp!A1" display="دليل شركات" xr:uid="{B9C64027-8F35-4D6A-9D0C-9FAD5F8569A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/groups/20084719473" xr:uid="{B08AC49B-DE56-4C26-A613-874F9D1C9D0A}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{79B18390-C8F9-4A7B-859C-2BDE131143E5}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{85E1B1AD-883A-4FF7-92BD-3371B7D50284}"/>
+    <hyperlink ref="A2" r:id="rId4" display="وظائف حكومية " xr:uid="{4AE1A225-BD46-4946-BA7A-7E1492426B99}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://www.facebook.com/groups/2410225039111544/" xr:uid="{AF9018CC-DE4A-438C-93AE-F2231A7C04C8}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://www.facebook.com/groups/1779563385666089/" xr:uid="{1DAA9A7D-99E5-42EC-AFD3-AE702D273C1A}"/>
+    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{DD475DD7-D876-4351-BB0C-B188E8BB293F}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://www.facebook.com/groups/fulltimeparttimejob/" xr:uid="{FD04BD6A-F39F-4E89-8EA0-83070A712394}"/>
+    <hyperlink ref="B3" r:id="rId8" display="https://www.facebook.com/groups/alsalamaconsulting/" xr:uid="{29C66A91-FB28-43A6-A519-5AF1E4FC0675}"/>
+    <hyperlink ref="D1" r:id="rId9" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
+    <hyperlink ref="A7" r:id="rId10" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
+    <hyperlink ref="A8" r:id="rId11" display="https://www.facebook.com/groups/ITJCS/" xr:uid="{CBB7F789-79E1-47CB-A5A0-30AC0C074BBE}"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.facebook.com/groups/ITjobsinEgyopt" xr:uid="{B9A6011E-3F52-47BD-AFD0-FB9D6FA82CC7}"/>
+    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/1056006427821002" xr:uid="{6202CD7E-0105-4CF9-A222-CC5F5B18AF3A}"/>
+    <hyperlink ref="C7" r:id="rId14" display="https://www.facebook.com/groups/ITJobsEGY" xr:uid="{977394D7-6637-423E-8F71-7BD8B0733741}"/>
+    <hyperlink ref="C3" r:id="rId15" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
+    <hyperlink ref="D2" r:id="rId16" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
+    <hyperlink ref="A6" r:id="rId17" xr:uid="{AC8E51E3-06B3-430C-AB8E-E0FB571E85DF}"/>
+    <hyperlink ref="B6" r:id="rId18" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
+    <hyperlink ref="C6" r:id="rId19" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
+    <hyperlink ref="D6" r:id="rId20" display="https://www.facebook.com/groups/cs.jobs.egypt" xr:uid="{908EC66C-09D5-4CB6-AF23-4BB991DBF232}"/>
+    <hyperlink ref="D3" r:id="rId21" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
+    <hyperlink ref="E1" r:id="rId22" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="40.5" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="30" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="38" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" style="38" customWidth="1"/>
+    <col min="9" max="10" width="0" style="38" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="21.5703125" style="38" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G9:I9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
+    <hyperlink ref="F1" r:id="rId3" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
+    <hyperlink ref="B2" r:id="rId4" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
+    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
+    <hyperlink ref="D3" r:id="rId7" display="https://www.facebook.com/groups/667915047470041/?notif_id=1677561496924122&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{BE9976F0-A0B0-452B-9437-26CE6C65B6B6}"/>
+    <hyperlink ref="E3" r:id="rId8" display="https://www.facebook.com/groups/272524820325144/" xr:uid="{58A48C8A-2126-4427-8C35-C2860B0772B1}"/>
+    <hyperlink ref="F3" r:id="rId9" display="https://www.facebook.com/groups/849346635622352" xr:uid="{6D3985F0-2631-42A5-9CF8-2A28A65F3140}"/>
+    <hyperlink ref="B3" r:id="rId10" display="https://www.facebook.com/groups/1569067813253565/" xr:uid="{77B189AD-86C4-4F66-97FC-F100A43ECF34}"/>
+    <hyperlink ref="C5" r:id="rId11" display="Weila, Nada! الإيطالى أونلاين" xr:uid="{22EB2E77-1B71-417E-9BCD-79469CE8DB59}"/>
+    <hyperlink ref="E1" r:id="rId12" xr:uid="{4B812BD3-154A-40FF-BFE2-C37FDD736AF0}"/>
+    <hyperlink ref="B5" r:id="rId13" xr:uid="{20FE3F61-BD0D-4A54-9903-734D8DC29E83}"/>
+    <hyperlink ref="D1" r:id="rId14" xr:uid="{134D8D96-4818-457D-AD45-B5EE67B525D4}"/>
+    <hyperlink ref="C1" r:id="rId15" xr:uid="{D018E6B3-5360-44DD-9E72-DBEBC133B20B}"/>
+    <hyperlink ref="C2" r:id="rId16" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
+    <hyperlink ref="D5" r:id="rId17" xr:uid="{43316627-A2A6-43C4-AC31-F8CFE74F16E8}"/>
+    <hyperlink ref="C3" r:id="rId18" display="https://www.facebook.com/groups/1089668831681869/" xr:uid="{CC9E9533-376A-4512-AED9-2D5FE48BE21B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DABE1E-B954-4FEA-BF88-745110978CA6}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -1979,251 +2749,251 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="28" style="58"/>
-    <col min="6" max="6" width="17.140625" style="58" customWidth="1"/>
-    <col min="7" max="16384" width="28" style="58"/>
+    <col min="1" max="5" width="28" style="56"/>
+    <col min="6" max="6" width="17.140625" style="56" customWidth="1"/>
+    <col min="7" max="16384" width="28" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="54" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="54" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="B5" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="54" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="90"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57" t="s">
+      <c r="B8" s="52" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="C8" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="D8" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="90" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="B14" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="C14" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="D14" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="B15" s="59" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-    </row>
-    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="90" t="s">
         <v>241</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-    </row>
-    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2270,8 +3040,748 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7CF6F-357D-4AA7-8504-62DED612AD81}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="91" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="91" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="91"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD845BE-25F2-447C-8CA3-C0EC2F5C6A47}">
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="83"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" s="63"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="72"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="73"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="66">
+        <v>25898039</v>
+      </c>
+      <c r="G12" s="84" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="66" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="75"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="75"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="75"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="64" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" s="65"/>
+      <c r="H19" s="75"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="74" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="65"/>
+      <c r="H20" s="75"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="76"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="75"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="76"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="75"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="75"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="75"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="75"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="76"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="75"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="76"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="75"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="75"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="77"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="78"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A11:H11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554487A-54EF-41D6-AFA4-61C62506A526}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
@@ -2280,30 +3790,31 @@
   <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="79.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,85 +3822,58 @@
         <v>35</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="62" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="G3" s="62" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://egfwd.com/" xr:uid="{2EB6CFBE-2D89-42BA-B2BD-71357E9FDE90}"/>
     <hyperlink ref="G1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4F122701-82BD-42FE-8F76-8BAAE02A46ED}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://www.facebook.com/AMIT.Learning" xr:uid="{07E9D3F5-75B4-4A04-8C1F-FA070FC5B0D5}"/>
-    <hyperlink ref="A6" r:id="rId3" display="https://www.facebook.com/groups/402958410979164" xr:uid="{7CE1C1AC-7406-4C33-956F-C0EF4EF0947C}"/>
-    <hyperlink ref="A3" r:id="rId4" display="https://millionrowad.com/" xr:uid="{388D77CC-DB1E-45EB-B2A3-709E93E88E0B}"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://eduhub21.com/" xr:uid="{294F52C5-76B2-4C71-B5F1-B27A4D59B586}"/>
-    <hyperlink ref="A4" r:id="rId6" display="http://techleaders.eg/" xr:uid="{5289F53E-8107-457A-95BC-6333BDC5F322}"/>
-    <hyperlink ref="A5" r:id="rId7" display="http://techleaders.eg/aal" xr:uid="{7EB7505A-E242-4991-BE0A-C04709E5F430}"/>
-    <hyperlink ref="B6" r:id="rId8" display="https://assess.sovaonline.com/hub/?ar=eNoBsABP_84CZZsEw2cT_eL0lv9k67svWuYqmMx7QEXe4QtavJXfTRtkVX3sz1uXETWS-hYGbqvqhEmJxIP-5-RQ1_1O5HP7hLlCvmupEhLUZqR1lOkWAUHtu2pEZojcq4uTL71lnMKG6MshdwSs7nJ2DpnelCBRKBuOrGej7dKpCseMXOwZ-vQXfCwhnMOVwiIHxweiWV_sJA7XovenneiJnZceBTUUFoGrD6Az47UIIP2FU1KMUJZaTQ==" xr:uid="{53A20B82-8AA7-481B-A85E-3B1071913D55}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.facebook.com/AMIT.Learning" xr:uid="{07E9D3F5-75B4-4A04-8C1F-FA070FC5B0D5}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.facebook.com/groups/402958410979164" xr:uid="{7CE1C1AC-7406-4C33-956F-C0EF4EF0947C}"/>
+    <hyperlink ref="C2" r:id="rId4" display="https://millionrowad.com/" xr:uid="{388D77CC-DB1E-45EB-B2A3-709E93E88E0B}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://eduhub21.com/" xr:uid="{294F52C5-76B2-4C71-B5F1-B27A4D59B586}"/>
+    <hyperlink ref="D2" r:id="rId6" display="http://techleaders.eg/" xr:uid="{5289F53E-8107-457A-95BC-6333BDC5F322}"/>
+    <hyperlink ref="A3" r:id="rId7" display="http://techleaders.eg/aal" xr:uid="{7EB7505A-E242-4991-BE0A-C04709E5F430}"/>
+    <hyperlink ref="C3" r:id="rId8" display="https://assess.sovaonline.com/hub/?ar=eNoBsABP_84CZZsEw2cT_eL0lv9k67svWuYqmMx7QEXe4QtavJXfTRtkVX3sz1uXETWS-hYGbqvqhEmJxIP-5-RQ1_1O5HP7hLlCvmupEhLUZqR1lOkWAUHtu2pEZojcq4uTL71lnMKG6MshdwSs7nJ2DpnelCBRKBuOrGej7dKpCseMXOwZ-vQXfCwhnMOVwiIHxweiWV_sJA7XovenneiJnZceBTUUFoGrD6Az47UIIP2FU1KMUJZaTQ==" xr:uid="{53A20B82-8AA7-481B-A85E-3B1071913D55}"/>
     <hyperlink ref="D1" r:id="rId9" display="https://www.egyincs.me/" xr:uid="{7822A4FF-0C13-46A0-8F6C-D467ABEE5AC1}"/>
     <hyperlink ref="A1" r:id="rId10" display="https://www.facebook.com/groups/cseknowledgeexchange" xr:uid="{D23FD2F6-BE1F-4855-B830-2790555CDD21}"/>
     <hyperlink ref="C1" r:id="rId11" display="https://www.facebook.com/groups/463038787444078" xr:uid="{2BDF2261-ECA7-455F-A006-CFCB7503AC53}"/>
     <hyperlink ref="E1" r:id="rId12" display="https://www.facebook.com/internmenow2020" xr:uid="{FFE61378-450C-449F-8F5D-9EF7171085F5}"/>
-    <hyperlink ref="D3" r:id="rId13" xr:uid="{3A316707-D580-4272-B540-DB400215CAC8}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{FEAE126F-8F98-4C5E-9DDC-7E52F2FEED1B}"/>
+    <hyperlink ref="G3" r:id="rId13" xr:uid="{3A316707-D580-4272-B540-DB400215CAC8}"/>
+    <hyperlink ref="G2" r:id="rId14" xr:uid="{FEAE126F-8F98-4C5E-9DDC-7E52F2FEED1B}"/>
     <hyperlink ref="B1" r:id="rId15" display="https://www.facebook.com/groups/314004286793745" xr:uid="{03AD6884-5A14-43DB-9FB1-DD16E18C84CE}"/>
     <hyperlink ref="B2" r:id="rId16" display="https://www.facebook.com/groups/FCISGraduateGroup" xr:uid="{644E55C7-CF10-4724-9FFD-C0E35A883CEB}"/>
   </hyperlinks>
@@ -2398,17 +3882,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB50E4A-66A8-4341-BC74-F018CC377242}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="25.28515625" style="32"/>
+    <col min="1" max="16384" width="25.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,47 +3900,47 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="9"/>
-      <c r="H1" s="27" t="s">
-        <v>118</v>
+      <c r="H1" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G2" s="9"/>
-      <c r="H2" s="33" t="s">
-        <v>37</v>
+      <c r="H2" s="32" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,20 +3954,20 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>175</v>
+      <c r="A4" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2500,16 +3984,16 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>174</v>
+      <c r="A6" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="38"/>
+        <v>175</v>
+      </c>
+      <c r="D6" s="37"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2526,17 +4010,17 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>176</v>
+      <c r="A8" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2554,11 +4038,11 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>177</v>
+      <c r="A10" s="36" t="s">
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2599,269 +4083,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="20.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="36" customWidth="1"/>
-    <col min="4" max="4" width="16" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14" style="36"/>
+    <col min="1" max="1" width="46.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="16" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>118</v>
+      <c r="F1" s="33" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="24">
         <v>1153332210</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="B5" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="F15" s="31"/>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="31"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="A20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2872,13 +4356,13 @@
     <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.sts-egypt.com/" xr:uid="{1F287EC6-9878-4DFE-957A-9E1CB3A623E5}"/>
@@ -2903,7 +4387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB56B96-DA60-4871-ABFB-0C91284AC1F1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2918,129 +4402,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="F2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="C6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="A7" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3086,49 +4570,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AF9BC-2390-432A-B21F-EAF301459FA9}">
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" style="17" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="17" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="17" hidden="1"/>
+    <col min="1" max="1" width="28" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3143,8 +4627,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="53" t="s">
-        <v>138</v>
+      <c r="G3" s="51" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3157,27 +4641,27 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
-        <v>211</v>
+      <c r="A5" s="50" t="s">
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3205,27 +4689,27 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>133</v>
+      <c r="A9" s="50" t="s">
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3234,24 +4718,24 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="17" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="17" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="16" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="https://www.javatpoint.com/interview-questions-and-answers" xr:uid="{D5C697F3-2DD8-447E-A8DD-73AEF82422D0}"/>
@@ -3270,7 +4754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E51287-1DA7-42BA-90C4-2B6689042D42}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3285,53 +4769,53 @@
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3360,436 +4844,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/groups/20084719473" xr:uid="{B08AC49B-DE56-4C26-A613-874F9D1C9D0A}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{79B18390-C8F9-4A7B-859C-2BDE131143E5}"/>
-    <hyperlink ref="C1" r:id="rId3" xr:uid="{85E1B1AD-883A-4FF7-92BD-3371B7D50284}"/>
-    <hyperlink ref="A2" r:id="rId4" display="وظائف حكومية " xr:uid="{4AE1A225-BD46-4946-BA7A-7E1492426B99}"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://www.facebook.com/groups/2410225039111544/" xr:uid="{AF9018CC-DE4A-438C-93AE-F2231A7C04C8}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://www.facebook.com/groups/1779563385666089/" xr:uid="{1DAA9A7D-99E5-42EC-AFD3-AE702D273C1A}"/>
-    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{DD475DD7-D876-4351-BB0C-B188E8BB293F}"/>
-    <hyperlink ref="A3" r:id="rId7" display="https://www.facebook.com/groups/fulltimeparttimejob/" xr:uid="{FD04BD6A-F39F-4E89-8EA0-83070A712394}"/>
-    <hyperlink ref="B3" r:id="rId8" display="https://www.facebook.com/groups/alsalamaconsulting/" xr:uid="{29C66A91-FB28-43A6-A519-5AF1E4FC0675}"/>
-    <hyperlink ref="D1" r:id="rId9" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
-    <hyperlink ref="A8" r:id="rId11" display="https://www.facebook.com/groups/ITJCS/" xr:uid="{CBB7F789-79E1-47CB-A5A0-30AC0C074BBE}"/>
-    <hyperlink ref="B7" r:id="rId12" display="https://www.facebook.com/groups/ITjobsinEgyopt" xr:uid="{B9A6011E-3F52-47BD-AFD0-FB9D6FA82CC7}"/>
-    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/1056006427821002" xr:uid="{6202CD7E-0105-4CF9-A222-CC5F5B18AF3A}"/>
-    <hyperlink ref="C7" r:id="rId14" display="https://www.facebook.com/groups/ITJobsEGY" xr:uid="{977394D7-6637-423E-8F71-7BD8B0733741}"/>
-    <hyperlink ref="C3" r:id="rId15" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
-    <hyperlink ref="D2" r:id="rId16" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
-    <hyperlink ref="A6" r:id="rId17" xr:uid="{AC8E51E3-06B3-430C-AB8E-E0FB571E85DF}"/>
-    <hyperlink ref="B6" r:id="rId18" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
-    <hyperlink ref="C6" r:id="rId19" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
-    <hyperlink ref="D6" r:id="rId20" display="https://www.facebook.com/groups/cs.jobs.egypt" xr:uid="{908EC66C-09D5-4CB6-AF23-4BB991DBF232}"/>
-    <hyperlink ref="D3" r:id="rId21" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
-    <hyperlink ref="E1" r:id="rId22" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="40.5" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="39" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="30" style="39" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="39" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" style="39" customWidth="1"/>
-    <col min="9" max="10" width="0" style="39" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="21.5703125" style="39" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G9:I9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.callcentrehelper.com/" xr:uid="{7E9C5764-4C63-459E-8B8B-4BBFBC9FEBAE}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://uxcenters.com/" xr:uid="{1D29879C-7C8C-4F5F-BF12-EB1F6C1BA462}"/>
-    <hyperlink ref="F1" r:id="rId3" display="https://www.rayacx.com/" xr:uid="{AC099443-51B6-42A8-ABFD-4A12DB4BAF1B}"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://www.majorel.com/" xr:uid="{57D91799-288F-45DF-8B4E-4E3D1C8403A0}"/>
-    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{4E155103-D4BF-42ED-BFF9-D6E7DAA07C66}"/>
-    <hyperlink ref="B7" r:id="rId5" display="https://youth.europa.eu/solidarity/placement/32596_en" xr:uid="{A3EB02E2-0776-4964-B173-4B4FECA90B33}"/>
-    <hyperlink ref="C7" r:id="rId6" display="https://www.stepstone.de/?authEvent=googleRegister&amp;lang=de" xr:uid="{131D3D21-4748-4CE2-9D8F-DEF73D2FDAC7}"/>
-    <hyperlink ref="D3" r:id="rId7" display="https://www.facebook.com/groups/667915047470041/?notif_id=1677561496924122&amp;notif_t=group_r2j_approved&amp;ref=notif" xr:uid="{BE9976F0-A0B0-452B-9437-26CE6C65B6B6}"/>
-    <hyperlink ref="E3" r:id="rId8" display="https://www.facebook.com/groups/272524820325144/" xr:uid="{58A48C8A-2126-4427-8C35-C2860B0772B1}"/>
-    <hyperlink ref="F3" r:id="rId9" display="https://www.facebook.com/groups/849346635622352" xr:uid="{6D3985F0-2631-42A5-9CF8-2A28A65F3140}"/>
-    <hyperlink ref="B3" r:id="rId10" display="https://www.facebook.com/groups/1569067813253565/" xr:uid="{77B189AD-86C4-4F66-97FC-F100A43ECF34}"/>
-    <hyperlink ref="C5" r:id="rId11" display="Weila, Nada! الإيطالى أونلاين" xr:uid="{22EB2E77-1B71-417E-9BCD-79469CE8DB59}"/>
-    <hyperlink ref="E1" r:id="rId12" xr:uid="{4B812BD3-154A-40FF-BFE2-C37FDD736AF0}"/>
-    <hyperlink ref="B5" r:id="rId13" xr:uid="{20FE3F61-BD0D-4A54-9903-734D8DC29E83}"/>
-    <hyperlink ref="D1" r:id="rId14" xr:uid="{134D8D96-4818-457D-AD45-B5EE67B525D4}"/>
-    <hyperlink ref="C1" r:id="rId15" xr:uid="{D018E6B3-5360-44DD-9E72-DBEBC133B20B}"/>
-    <hyperlink ref="C2" r:id="rId16" display="https://www.xceedcc.com/" xr:uid="{6A716BD9-49EA-4976-9305-216AC0A6B494}"/>
-    <hyperlink ref="D5" r:id="rId17" xr:uid="{43316627-A2A6-43C4-AC31-F8CFE74F16E8}"/>
-    <hyperlink ref="C3" r:id="rId18" display="https://www.facebook.com/groups/1089668831681869/" xr:uid="{CC9E9533-376A-4512-AED9-2D5FE48BE21B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
-</worksheet>
 </file>
--- a/HTML/0 Excel SRC Files/Jobs Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Jobs Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7674AA-93F7-43B8-81BD-12F95190BCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA6375-F94D-4A7C-8E66-1F8CD5F3CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="304">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>sts-eg.net</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/m.wahba137</t>
   </si>
 </sst>
 </file>
@@ -1742,6 +1745,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,12 +1779,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2062,7 +2065,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,13 +2314,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="5" width="19.42578125" customWidth="1"/>
@@ -2392,13 +2395,13 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86" t="s">
+      <c r="A5" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="24"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2462,7 +2465,9 @@
       <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="24" t="s">
+        <v>303</v>
+      </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
@@ -2694,11 +2699,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2808,13 +2813,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="92" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
     </row>
@@ -2841,15 +2846,15 @@
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="E7" s="90"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
     </row>
@@ -2880,13 +2885,13 @@
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="92" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
     </row>
@@ -2911,13 +2916,13 @@
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
     </row>
@@ -2954,13 +2959,13 @@
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
     </row>
@@ -3043,42 +3048,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7CF6F-357D-4AA7-8504-62DED612AD81}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="91" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="91" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="91"/>
+    <col min="1" max="1" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="D1" s="82" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="E1" s="82" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="82" t="s">
         <v>295</v>
       </c>
       <c r="H1" s="38"/>
@@ -3372,16 +3377,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>286</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -3476,16 +3481,16 @@
       <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="83" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
@@ -3506,7 +3511,7 @@
       <c r="F12" s="66">
         <v>25898039</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="86" t="s">
         <v>266</v>
       </c>
       <c r="H12" s="75" t="s">
@@ -3526,7 +3531,7 @@
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="66"/>
-      <c r="G13" s="84"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="75" t="s">
         <v>267</v>
       </c>
@@ -4478,14 +4483,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">

--- a/HTML/0 Excel SRC Files/Jobs Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Jobs Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CA6375-F94D-4A7C-8E66-1F8CD5F3CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC3C54-8D89-408F-9989-8DCF326D9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <sheet name="Markets" sheetId="8" r:id="rId9"/>
     <sheet name="Face Groups" sheetId="11" r:id="rId10"/>
     <sheet name="O-Lvl" sheetId="9" r:id="rId11"/>
-    <sheet name="FL" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="271">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -710,107 +709,6 @@
     <t>Hilton</t>
   </si>
   <si>
-    <t>Freelancer</t>
-  </si>
-  <si>
-    <t>Up Work</t>
-  </si>
-  <si>
-    <t>Fiverr</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>Toptal</t>
-  </si>
-  <si>
-    <t>crowded</t>
-  </si>
-  <si>
-    <t>Worxmart</t>
-  </si>
-  <si>
-    <t>Jooble</t>
-  </si>
-  <si>
-    <t>Flex Jobs</t>
-  </si>
-  <si>
-    <t>People/Hour</t>
-  </si>
-  <si>
-    <t>Best Company</t>
-  </si>
-  <si>
-    <t>Upwork Egypt</t>
-  </si>
-  <si>
-    <t>عربي</t>
-  </si>
-  <si>
-    <t>خمسات</t>
-  </si>
-  <si>
-    <t>مستقل</t>
-  </si>
-  <si>
-    <t>transcription</t>
-  </si>
-  <si>
-    <t>Happy Scribe</t>
-  </si>
-  <si>
-    <t>Scribie</t>
-  </si>
-  <si>
-    <t>Go Transcript</t>
-  </si>
-  <si>
-    <t>Rev</t>
-  </si>
-  <si>
-    <t>1/5</t>
-  </si>
-  <si>
-    <t>Freelance Me</t>
-  </si>
-  <si>
-    <t>Freelancer People</t>
-  </si>
-  <si>
-    <t>Learn With 
-Marie</t>
-  </si>
-  <si>
-    <t>وليد طه</t>
-  </si>
-  <si>
-    <t>فكرة 
- صهيب الدسوقي</t>
-  </si>
-  <si>
-    <t>محمود خالد</t>
-  </si>
-  <si>
-    <t>Learn With Marie TIKTOK</t>
-  </si>
-  <si>
-    <t>Mounis Firwana</t>
-  </si>
-  <si>
-    <t>أبو العباقره</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designers </t>
-  </si>
-  <si>
-    <t>Behance</t>
-  </si>
-  <si>
-    <t>99 Designs</t>
-  </si>
-  <si>
     <t>[Banks]</t>
   </si>
   <si>
@@ -995,7 +893,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,20 +1054,12 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,12 +1110,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1507,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1658,34 +1542,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1724,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1777,9 +1634,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,8 +1918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C18477-0470-4498-9086-8645187CF6A7}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,13 +1935,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
-        <v>247</v>
+        <v>214</v>
       </c>
       <c r="B1" s="41" t="s">
         <v>202</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D1" s="42" t="s">
         <v>8</v>
@@ -2102,7 +1956,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="44"/>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="52" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2184,7 +2038,7 @@
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="46" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2209,7 +2063,7 @@
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="46" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2220,11 +2074,11 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="46" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2247,12 +2101,10 @@
         <v>73</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="46" t="s">
-        <v>178</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2299,10 +2151,9 @@
     <hyperlink ref="C7" r:id="rId35" xr:uid="{4DAD9C20-EB71-41E6-93E1-A54CB72FDE33}"/>
     <hyperlink ref="E7" r:id="rId36" xr:uid="{F3DAB9F0-C87E-48B5-9E76-EE89BFE2913A}"/>
     <hyperlink ref="A5" r:id="rId37" display="iCareerEgy" xr:uid="{4B6DE209-12A5-423C-9A76-D60DA92AC988}"/>
-    <hyperlink ref="I6" location="FL!A1" display="Freelancer" xr:uid="{957926CA-8F10-47FC-94CE-8EC3821A4DEC}"/>
     <hyperlink ref="G2" r:id="rId38" display="https://www.goodfirms.co/" xr:uid="{E883C039-8BA0-4270-A6D4-C018442BDA95}"/>
     <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{0CFDE5A7-EEE6-4E10-8918-4F50CF689408}"/>
-    <hyperlink ref="I7" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
+    <hyperlink ref="I6" location="'O-Lvl'!A1" display="Other Level" xr:uid="{F3F1B798-1398-4B6A-8C67-71CA95900A06}"/>
     <hyperlink ref="G7" location="Oth.Comp!A1" display="دليل شركات" xr:uid="{B9C64027-8F35-4D6A-9D0C-9FAD5F8569A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2314,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2395,13 +2246,13 @@
       <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="24"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2466,7 +2317,7 @@
     </row>
     <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>303</v>
+        <v>270</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -2699,11 +2550,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="82" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2744,306 +2595,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DABE1E-B954-4FEA-BF88-745110978CA6}">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="5" width="28" style="56"/>
-    <col min="6" max="6" width="17.140625" style="56" customWidth="1"/>
-    <col min="7" max="16384" width="28" style="56"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-    </row>
-    <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="92" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-    </row>
-    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B15" s="59" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="58" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-    </row>
-    <row r="19" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{0BB31627-5860-4B2B-8257-05F101B73D9E}"/>
-    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{07005F9B-4511-4204-A78F-42EFC1A373CE}"/>
-    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{D1EF40B2-E9ED-42BF-8FA5-65B544DEF5FF}"/>
-    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{33344414-7673-4A8C-8CD5-4C8E5917E773}"/>
-    <hyperlink ref="E3" r:id="rId5" display="https://bestcompany.com/" xr:uid="{E2BF475D-FA0A-40EC-AE14-FEC51CC45A95}"/>
-    <hyperlink ref="A11" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{5775727E-B1C3-420D-8CA9-EE4DA55F37EB}"/>
-    <hyperlink ref="A5" r:id="rId7" display="https://khamsat.com/" xr:uid="{BB57D405-C8B4-455A-8AF6-31C3A3E53CD8}"/>
-    <hyperlink ref="E17" r:id="rId8" display="https://99designs.com/" xr:uid="{2013DFE5-A547-4CA3-8874-1D64BEFB1F12}"/>
-    <hyperlink ref="A2" r:id="rId9" display="https://www.toptal.com/" xr:uid="{2D70E38D-439E-41EA-8C2C-CCB4C55B97C6}"/>
-    <hyperlink ref="B2" r:id="rId10" display="https://www.crowded.com/" xr:uid="{48D36FB4-18F1-4A61-911F-DB8BC2D9233E}"/>
-    <hyperlink ref="G1" location="Jobs!A1" display="Back" xr:uid="{F4002D3D-1AD4-4552-A698-05EC1C10F18E}"/>
-    <hyperlink ref="B5" r:id="rId11" xr:uid="{F2765291-F7E9-4463-A41C-90DD4E23AE6F}"/>
-    <hyperlink ref="C2" r:id="rId12" xr:uid="{2F770536-D56F-47C6-A1E8-4C0468FFBD1A}"/>
-    <hyperlink ref="D2" r:id="rId13" xr:uid="{6CD51991-9296-44EB-8B54-594FE709C6BB}"/>
-    <hyperlink ref="A3" r:id="rId14" xr:uid="{DCD2735A-6F1C-47A5-AFB3-5345C9DA702B}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{30FC6001-BB00-419D-9540-D40995547183}"/>
-    <hyperlink ref="B3" r:id="rId16" xr:uid="{27B3E6AE-EFBA-4212-9907-E0C59B27C62D}"/>
-    <hyperlink ref="A14" r:id="rId17" display="Learn With Marie" xr:uid="{1575B8C0-DF1D-4694-ACBD-09C09B287A65}"/>
-    <hyperlink ref="D14" r:id="rId18" xr:uid="{3E404F8D-EE20-424A-BBB7-44D02201B643}"/>
-    <hyperlink ref="C14" r:id="rId19" display="فكرة - صهيب الدسوقي" xr:uid="{7958B80E-0A96-4A8C-89DD-AC706C72DB8C}"/>
-    <hyperlink ref="B15" r:id="rId20" xr:uid="{18A8EE44-AF99-40F7-96E1-46A43F4C7339}"/>
-    <hyperlink ref="A15" r:id="rId21" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{8B5E840F-604F-426E-B380-A77D8B629332}"/>
-    <hyperlink ref="B8" r:id="rId22" xr:uid="{A1BF7AEE-9B07-4066-938F-A238F80D34A2}"/>
-    <hyperlink ref="A8" r:id="rId23" xr:uid="{8EEF4EFF-C677-44C2-9656-C7A20F86BAF9}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{6CB1C057-6C39-44AD-9A6C-582CA89117A9}"/>
-    <hyperlink ref="C8" r:id="rId25" xr:uid="{EA9455F7-1EC1-4C6A-9185-71872839E025}"/>
-    <hyperlink ref="E15" r:id="rId26" xr:uid="{2855A974-08E5-4E17-A6C2-28C432E3E725}"/>
-    <hyperlink ref="B14" r:id="rId27" xr:uid="{D661D813-2C3D-4084-9329-B50A8280489F}"/>
-    <hyperlink ref="G3" r:id="rId28" xr:uid="{4383EAA1-436C-455E-B22A-93DBD1285270}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7CF6F-357D-4AA7-8504-62DED612AD81}">
   <dimension ref="A1:H23"/>
@@ -3054,49 +2605,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="81" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="81" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="81"/>
+    <col min="1" max="1" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="72" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="82" t="s">
+      <c r="A1" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="82" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" s="82" t="s">
-        <v>293</v>
-      </c>
-      <c r="F1" s="82" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="82" t="s">
-        <v>295</v>
+      <c r="C1" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>262</v>
       </c>
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -3108,14 +2659,14 @@
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="D3" s="38"/>
       <c r="E3" s="38" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -3127,7 +2678,7 @@
       <c r="D4" s="38"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38" t="s">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -3351,428 +2902,428 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="68" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="59" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="54"/>
+      <c r="H3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="63"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="63"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="63"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="64"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="63"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="63"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="63"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="57">
+        <v>25898039</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>243</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="56"/>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="C20" s="56" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="D20" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F20" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="71" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="73"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="73"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="66">
-        <v>25898039</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="D14" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="66" t="s">
-        <v>274</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="75"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="75"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="75"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E19" s="64" t="s">
-        <v>279</v>
-      </c>
-      <c r="F19" s="66" t="s">
-        <v>280</v>
-      </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="75"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
-        <v>281</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="64" t="s">
-        <v>284</v>
-      </c>
-      <c r="F20" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="65"/>
-      <c r="H20" s="75"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="75"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="75"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="75"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="75"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="75"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="75"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="75"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="75"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="75"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="75"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="72"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="77"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="68"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3839,7 +3390,7 @@
         <v>78</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="53" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3858,7 +3409,7 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="53" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4483,14 +4034,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">

--- a/HTML/0 Excel SRC Files/Jobs Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Jobs Excel.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADC3C54-8D89-408F-9989-8DCF326D9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B98DB04-A6D6-493F-9D34-157A41B6DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jobs" sheetId="12" r:id="rId1"/>
-    <sheet name="Dev.Data" sheetId="15" r:id="rId2"/>
-    <sheet name="Oth.Comp" sheetId="14" r:id="rId3"/>
-    <sheet name="training" sheetId="10" r:id="rId4"/>
-    <sheet name="Companies" sheetId="5" r:id="rId5"/>
-    <sheet name="Tech Co" sheetId="1" r:id="rId6"/>
-    <sheet name="Banks" sheetId="4" r:id="rId7"/>
-    <sheet name="Help" sheetId="6" r:id="rId8"/>
-    <sheet name="Markets" sheetId="8" r:id="rId9"/>
-    <sheet name="Face Groups" sheetId="11" r:id="rId10"/>
-    <sheet name="O-Lvl" sheetId="9" r:id="rId11"/>
+    <sheet name="Oth.Comp" sheetId="14" r:id="rId2"/>
+    <sheet name="training" sheetId="10" r:id="rId3"/>
+    <sheet name="Companies" sheetId="5" r:id="rId4"/>
+    <sheet name="Tech Co" sheetId="1" r:id="rId5"/>
+    <sheet name="Banks" sheetId="4" r:id="rId6"/>
+    <sheet name="Help" sheetId="6" r:id="rId7"/>
+    <sheet name="Markets" sheetId="8" r:id="rId8"/>
+    <sheet name="Face Groups" sheetId="11" r:id="rId9"/>
+    <sheet name="O-Lvl" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="258">
   <si>
     <t>STS Egypt</t>
   </si>
@@ -845,45 +844,6 @@
   </si>
   <si>
     <t>[Dev.Data]</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Phone.Number</t>
-  </si>
-  <si>
-    <t>e-mail</t>
-  </si>
-  <si>
-    <t>company name</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>khaled abd elnasser</t>
-  </si>
-  <si>
-    <t>UAE</t>
-  </si>
-  <si>
-    <t>PowerPlatform Dev</t>
-  </si>
-  <si>
-    <t>hr</t>
-  </si>
-  <si>
-    <t>m.abdel@blockgemini.com</t>
-  </si>
-  <si>
-    <t>blockgemini.com</t>
-  </si>
-  <si>
-    <t>sts-eg.net</t>
   </si>
   <si>
     <t>https://www.facebook.com/m.wahba137</t>
@@ -1391,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,12 +1561,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1919,7 +1873,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,256 +2116,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:E5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/groups/20084719473" xr:uid="{B08AC49B-DE56-4C26-A613-874F9D1C9D0A}"/>
-    <hyperlink ref="B1" r:id="rId2" xr:uid="{79B18390-C8F9-4A7B-859C-2BDE131143E5}"/>
-    <hyperlink ref="C1" r:id="rId3" xr:uid="{85E1B1AD-883A-4FF7-92BD-3371B7D50284}"/>
-    <hyperlink ref="A2" r:id="rId4" display="وظائف حكومية " xr:uid="{4AE1A225-BD46-4946-BA7A-7E1492426B99}"/>
-    <hyperlink ref="B2" r:id="rId5" display="https://www.facebook.com/groups/2410225039111544/" xr:uid="{AF9018CC-DE4A-438C-93AE-F2231A7C04C8}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://www.facebook.com/groups/1779563385666089/" xr:uid="{1DAA9A7D-99E5-42EC-AFD3-AE702D273C1A}"/>
-    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{DD475DD7-D876-4351-BB0C-B188E8BB293F}"/>
-    <hyperlink ref="A3" r:id="rId7" display="https://www.facebook.com/groups/fulltimeparttimejob/" xr:uid="{FD04BD6A-F39F-4E89-8EA0-83070A712394}"/>
-    <hyperlink ref="B3" r:id="rId8" display="https://www.facebook.com/groups/alsalamaconsulting/" xr:uid="{29C66A91-FB28-43A6-A519-5AF1E4FC0675}"/>
-    <hyperlink ref="D1" r:id="rId9" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
-    <hyperlink ref="A7" r:id="rId10" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
-    <hyperlink ref="A8" r:id="rId11" display="https://www.facebook.com/groups/ITJCS/" xr:uid="{CBB7F789-79E1-47CB-A5A0-30AC0C074BBE}"/>
-    <hyperlink ref="B7" r:id="rId12" display="https://www.facebook.com/groups/ITjobsinEgyopt" xr:uid="{B9A6011E-3F52-47BD-AFD0-FB9D6FA82CC7}"/>
-    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/1056006427821002" xr:uid="{6202CD7E-0105-4CF9-A222-CC5F5B18AF3A}"/>
-    <hyperlink ref="C7" r:id="rId14" display="https://www.facebook.com/groups/ITJobsEGY" xr:uid="{977394D7-6637-423E-8F71-7BD8B0733741}"/>
-    <hyperlink ref="C3" r:id="rId15" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
-    <hyperlink ref="D2" r:id="rId16" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
-    <hyperlink ref="A6" r:id="rId17" xr:uid="{AC8E51E3-06B3-430C-AB8E-E0FB571E85DF}"/>
-    <hyperlink ref="B6" r:id="rId18" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
-    <hyperlink ref="C6" r:id="rId19" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
-    <hyperlink ref="D6" r:id="rId20" display="https://www.facebook.com/groups/cs.jobs.egypt" xr:uid="{908EC66C-09D5-4CB6-AF23-4BB991DBF232}"/>
-    <hyperlink ref="D3" r:id="rId21" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
-    <hyperlink ref="E1" r:id="rId22" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F0DFE-0257-4178-A80E-42D2F3B72A92}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -2550,11 +2254,11 @@
     </row>
     <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:9" ht="108.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2596,290 +2300,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A7CF6F-357D-4AA7-8504-62DED612AD81}">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="72"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="F1" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" s="38"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>265</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD845BE-25F2-447C-8CA3-C0EC2F5C6A47}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -2928,16 +2348,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
@@ -3032,16 +2452,16 @@
       <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="65" t="s">
@@ -3062,7 +2482,7 @@
       <c r="F12" s="57">
         <v>25898039</v>
       </c>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="75" t="s">
         <v>233</v>
       </c>
       <c r="H12" s="66" t="s">
@@ -3082,7 +2502,7 @@
       </c>
       <c r="E13" s="55"/>
       <c r="F13" s="57"/>
-      <c r="G13" s="77"/>
+      <c r="G13" s="75"/>
       <c r="H13" s="66" t="s">
         <v>234</v>
       </c>
@@ -3335,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7554487A-54EF-41D6-AFA4-61C62506A526}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -3438,7 +2858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB50E4A-66A8-4341-BC74-F018CC377242}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -3639,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -3943,11 +3363,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB56B96-DA60-4871-ABFB-0C91284AC1F1}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4034,14 +3454,14 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
@@ -4126,11 +3546,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AF9BC-2390-432A-B21F-EAF301459FA9}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4310,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E51287-1DA7-42BA-90C4-2B6689042D42}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4400,4 +3820,254 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705F05C-EB82-45C3-805A-00F404E5119F}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.facebook.com/groups/20084719473" xr:uid="{B08AC49B-DE56-4C26-A613-874F9D1C9D0A}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{79B18390-C8F9-4A7B-859C-2BDE131143E5}"/>
+    <hyperlink ref="C1" r:id="rId3" xr:uid="{85E1B1AD-883A-4FF7-92BD-3371B7D50284}"/>
+    <hyperlink ref="A2" r:id="rId4" display="وظائف حكومية " xr:uid="{4AE1A225-BD46-4946-BA7A-7E1492426B99}"/>
+    <hyperlink ref="B2" r:id="rId5" display="https://www.facebook.com/groups/2410225039111544/" xr:uid="{AF9018CC-DE4A-438C-93AE-F2231A7C04C8}"/>
+    <hyperlink ref="C2" r:id="rId6" display="https://www.facebook.com/groups/1779563385666089/" xr:uid="{1DAA9A7D-99E5-42EC-AFD3-AE702D273C1A}"/>
+    <hyperlink ref="H1" location="Jobs!A1" display="Back &lt;--" xr:uid="{DD475DD7-D876-4351-BB0C-B188E8BB293F}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://www.facebook.com/groups/fulltimeparttimejob/" xr:uid="{FD04BD6A-F39F-4E89-8EA0-83070A712394}"/>
+    <hyperlink ref="B3" r:id="rId8" display="https://www.facebook.com/groups/alsalamaconsulting/" xr:uid="{29C66A91-FB28-43A6-A519-5AF1E4FC0675}"/>
+    <hyperlink ref="D1" r:id="rId9" display="https://www.facebook.com/groups/jobsandvacancies" xr:uid="{CE95B1C9-3F6F-4CE7-8618-826AEDD63F35}"/>
+    <hyperlink ref="A7" r:id="rId10" display="https://www.facebook.com/groups/976429042558188" xr:uid="{3495D403-62B3-4EEA-8F45-B91F08CFB1E9}"/>
+    <hyperlink ref="A8" r:id="rId11" display="https://www.facebook.com/groups/ITJCS/" xr:uid="{CBB7F789-79E1-47CB-A5A0-30AC0C074BBE}"/>
+    <hyperlink ref="B7" r:id="rId12" display="https://www.facebook.com/groups/ITjobsinEgyopt" xr:uid="{B9A6011E-3F52-47BD-AFD0-FB9D6FA82CC7}"/>
+    <hyperlink ref="B8" r:id="rId13" display="https://www.facebook.com/groups/1056006427821002" xr:uid="{6202CD7E-0105-4CF9-A222-CC5F5B18AF3A}"/>
+    <hyperlink ref="C7" r:id="rId14" display="https://www.facebook.com/groups/ITJobsEGY" xr:uid="{977394D7-6637-423E-8F71-7BD8B0733741}"/>
+    <hyperlink ref="C3" r:id="rId15" display="https://www.facebook.com/groups/20084719473/" xr:uid="{9501E00A-A5CF-478D-A60F-CED4984D3987}"/>
+    <hyperlink ref="D2" r:id="rId16" display="https://www.facebook.com/groups/543685022330047/" xr:uid="{F3CF5826-DFB0-4D6C-BD90-2140AA768BC4}"/>
+    <hyperlink ref="A6" r:id="rId17" xr:uid="{AC8E51E3-06B3-430C-AB8E-E0FB571E85DF}"/>
+    <hyperlink ref="B6" r:id="rId18" display="https://www.facebook.com/groups/EgyptianGeeksJobs" xr:uid="{FCF1C1D7-5A34-4D41-82E0-DF976FB231D6}"/>
+    <hyperlink ref="C6" r:id="rId19" display="https://www.facebook.com/groups/409017716170873" xr:uid="{9C2814AE-01D3-4F14-9732-B3C215EC612D}"/>
+    <hyperlink ref="D6" r:id="rId20" display="https://www.facebook.com/groups/cs.jobs.egypt" xr:uid="{908EC66C-09D5-4CB6-AF23-4BB991DBF232}"/>
+    <hyperlink ref="D3" r:id="rId21" display="https://www.facebook.com/groups/449381225595822/" xr:uid="{B7ECC880-7110-47EA-912B-7DB323C6C332}"/>
+    <hyperlink ref="E1" r:id="rId22" display="https://www.facebook.com/24sjobtalkegy/" xr:uid="{215DDE7D-7D0F-4886-927E-382FDF62CE32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+</worksheet>
 </file>